--- a/data/trans_orig/ip32_a_es-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_es-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48E783C0-821E-45D8-87F6-5B3F65932B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CFE24C-9697-4345-8164-D0A7C65EAEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0A1DEDB-C805-4B73-B377-5DAE1FF3B128}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{104C96EF-1041-4048-A947-1E1614F53836}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="383">
   <si>
     <t>Menores según el año que llegó a España en 2012 (Tasa respuesta: 2,62%)</t>
   </si>
@@ -87,13 +87,13 @@
     <t>12,05%</t>
   </si>
   <si>
-    <t>52,69%</t>
+    <t>55,37%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>35,85%</t>
+    <t>37,46%</t>
   </si>
   <si>
     <t>60,59%</t>
@@ -105,16 +105,16 @@
     <t>17,24%</t>
   </si>
   <si>
-    <t>66,24%</t>
+    <t>64,34%</t>
   </si>
   <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
   </si>
   <si>
     <t>39,41%</t>
@@ -123,37 +123,37 @@
     <t>11,71%</t>
   </si>
   <si>
-    <t>52,75%</t>
+    <t>57,46%</t>
   </si>
   <si>
     <t>21,15%</t>
   </si>
   <si>
-    <t>61,39%</t>
+    <t>57,63%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>72,27%</t>
+    <t>71,89%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>50,92%</t>
+    <t>51,41%</t>
   </si>
   <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>76,24%</t>
+    <t>74,03%</t>
   </si>
   <si>
     <t>21,09%</t>
   </si>
   <si>
-    <t>56,33%</t>
+    <t>59,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -174,187 +174,190 @@
     <t>12,01%</t>
   </si>
   <si>
-    <t>35,87%</t>
+    <t>34,85%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>19,41%</t>
+    <t>20,43%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>28,79%</t>
+    <t>35,09%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>25,77%</t>
+    <t>31,45%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>16,67%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -369,100 +372,103 @@
     <t>14,39%</t>
   </si>
   <si>
-    <t>57,05%</t>
+    <t>59,38%</t>
   </si>
   <si>
     <t>41,95%</t>
   </si>
   <si>
+    <t>83,09%</t>
+  </si>
+  <si>
     <t>25,73%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>20,13%</t>
   </si>
   <si>
-    <t>81,58%</t>
+    <t>77,63%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>42,58%</t>
+    <t>34,62%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>70,09%</t>
+    <t>68,59%</t>
   </si>
   <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>49,63%</t>
+    <t>42,21%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>71,29%</t>
+    <t>67,75%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>44,67%</t>
+    <t>39,05%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>68,42%</t>
+    <t>53,4%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>75,98%</t>
+    <t>78,73%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>79,65%</t>
+    <t>79,71%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>48,69%</t>
+    <t>50,34%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>58,53%</t>
+    <t>57,88%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>40,7%</t>
+    <t>42,07%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -477,691 +483,709 @@
     <t>7,63%</t>
   </si>
   <si>
-    <t>27,13%</t>
+    <t>26,25%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>13,14%</t>
+    <t>12,94%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>24,44%</t>
+    <t>29,09%</t>
   </si>
   <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>27,0%</t>
+    <t>22,79%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>22,91%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a España en 2016 (Tasa respuesta: 1,51%)</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a España en 2015 (Tasa respuesta: 1,51%)</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>29,63%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>33,47%</t>
+    <t>32,97%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>41,89%</t>
+    <t>46,78%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>25,71%</t>
+    <t>26,63%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>39,76%</t>
+    <t>42,04%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>18,35%</t>
+    <t>21,86%</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92548BD5-AEFA-404D-B6C6-3025ACC1C6E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C47FBB-00A1-4F7D-BE7C-11FE38DA8F0D}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3094,10 +3118,10 @@
         <v>97</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -3106,13 +3130,13 @@
         <v>3570</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3166,13 @@
         <v>878</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3157,13 +3181,13 @@
         <v>878</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,7 +3243,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34" s="5">
         <v>2015</v>
@@ -3252,7 +3276,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3267,7 +3291,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3327,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3318,7 +3342,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3378,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3369,7 +3393,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,7 +3429,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3420,7 +3444,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,7 +3480,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3471,7 +3495,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3510,13 @@
         <v>951</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -3501,13 +3525,13 @@
         <v>1938</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -3516,13 +3540,13 @@
         <v>2890</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3576,13 @@
         <v>930</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3567,13 +3591,13 @@
         <v>930</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3612,13 @@
         <v>1721</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3609,7 +3633,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3618,13 +3642,13 @@
         <v>1721</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3663,13 @@
         <v>1098</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3660,7 +3684,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3669,13 +3693,13 @@
         <v>1097</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3714,13 @@
         <v>948</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3705,13 +3729,13 @@
         <v>842</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3720,13 +3744,13 @@
         <v>1790</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,7 +3786,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -3777,7 +3801,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3816,13 @@
         <v>951</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -3807,13 +3831,13 @@
         <v>910</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
@@ -3822,13 +3846,13 @@
         <v>1862</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3867,13 @@
         <v>942</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3864,7 +3888,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3873,13 +3897,13 @@
         <v>942</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,7 +3939,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3930,7 +3954,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,7 +4028,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4019,7 +4043,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4034,7 +4058,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,7 +4079,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4070,7 +4094,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4085,7 +4109,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,7 +4130,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4121,7 +4145,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -4136,7 +4160,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4172,7 +4196,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4187,7 +4211,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,28 +4226,28 @@
         <v>2051</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -4232,13 +4256,13 @@
         <v>2051</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4277,13 @@
         <v>2207</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H54" s="7">
         <v>6</v>
@@ -4268,13 +4292,13 @@
         <v>5885</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M54" s="7">
         <v>8</v>
@@ -4283,13 +4307,13 @@
         <v>8091</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,7 +4334,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H55" s="7">
         <v>4</v>
@@ -4319,13 +4343,13 @@
         <v>3209</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M55" s="7">
         <v>4</v>
@@ -4334,13 +4358,13 @@
         <v>3209</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4379,13 @@
         <v>4720</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
@@ -4370,13 +4394,13 @@
         <v>2003</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M56" s="7">
         <v>7</v>
@@ -4385,13 +4409,13 @@
         <v>6723</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4430,13 @@
         <v>4187</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H57" s="7">
         <v>3</v>
@@ -4421,13 +4445,13 @@
         <v>2924</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M57" s="7">
         <v>7</v>
@@ -4436,13 +4460,13 @@
         <v>7111</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4481,13 @@
         <v>5063</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
@@ -4472,13 +4496,13 @@
         <v>2522</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M58" s="7">
         <v>8</v>
@@ -4487,13 +4511,13 @@
         <v>7585</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4532,13 @@
         <v>2062</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -4523,13 +4547,13 @@
         <v>736</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M59" s="7">
         <v>3</v>
@@ -4538,13 +4562,13 @@
         <v>2798</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4583,13 @@
         <v>4653</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -4574,13 +4598,13 @@
         <v>910</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M60" s="7">
         <v>6</v>
@@ -4589,13 +4613,13 @@
         <v>5563</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4634,13 @@
         <v>1924</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H61" s="7">
         <v>5</v>
@@ -4625,13 +4649,13 @@
         <v>4245</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M61" s="7">
         <v>7</v>
@@ -4640,13 +4664,13 @@
         <v>6169</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,7 +4691,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -4676,13 +4700,13 @@
         <v>2841</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M62" s="7">
         <v>3</v>
@@ -4691,13 +4715,13 @@
         <v>2841</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,7 +4777,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4772,7 +4796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BDF90-8788-46CD-8805-3FEF02F66BB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAA282C-FDFB-4091-956D-D7B46A39711A}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4789,7 +4813,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4932,7 +4956,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,7 +5007,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,7 +5058,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,7 +5109,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,7 +5160,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,7 +5211,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5226,7 @@
         <v>943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>10</v>
@@ -5217,7 +5241,7 @@
         <v>1863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
@@ -5232,13 +5256,13 @@
         <v>2806</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,7 +5313,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,7 +5343,7 @@
         <v>931</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
@@ -5334,13 +5358,13 @@
         <v>931</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,7 +5415,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,7 +5466,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,7 +5481,7 @@
         <v>878</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>10</v>
@@ -5487,13 +5511,13 @@
         <v>878</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,7 +5532,7 @@
         <v>983</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
@@ -5544,7 +5568,7 @@
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5619,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5753,13 @@
         <v>536</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5744,13 +5768,13 @@
         <v>536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5804,13 @@
         <v>993</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -5795,13 +5819,13 @@
         <v>993</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5840,13 @@
         <v>943</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5831,13 +5855,13 @@
         <v>874</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -5846,13 +5870,13 @@
         <v>1818</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5891,13 @@
         <v>672</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5882,13 +5906,13 @@
         <v>1167</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5897,13 +5921,13 @@
         <v>1840</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5957,13 @@
         <v>1165</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5948,13 +5972,13 @@
         <v>1165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5993,13 @@
         <v>1081</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5999,13 +6023,13 @@
         <v>1081</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6095,13 @@
         <v>2253</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6101,13 +6125,13 @@
         <v>2253</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6146,13 @@
         <v>713</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6137,13 +6161,13 @@
         <v>1950</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -6152,13 +6176,13 @@
         <v>2664</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,13 +6212,13 @@
         <v>1492</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6203,13 +6227,13 @@
         <v>1492</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6248,13 @@
         <v>983</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6254,13 +6278,13 @@
         <v>983</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,7 +6442,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34" s="5">
         <v>2015</v>
@@ -6445,13 +6469,13 @@
         <v>759</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6460,13 +6484,13 @@
         <v>759</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,7 +6505,7 @@
         <v>937</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
@@ -6502,7 +6526,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6511,13 +6535,13 @@
         <v>937</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,7 +6556,7 @@
         <v>892</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
@@ -6547,13 +6571,13 @@
         <v>915</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6562,13 +6586,13 @@
         <v>1806</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6622,13 @@
         <v>1654</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6613,13 +6637,13 @@
         <v>1653</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,7 +6679,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6670,7 +6694,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,7 +6709,7 @@
         <v>644</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>10</v>
@@ -6706,7 +6730,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -6715,13 +6739,13 @@
         <v>644</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,7 +6781,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6772,7 +6796,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,7 +6832,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6823,7 +6847,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,7 +6883,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6874,7 +6898,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6928,13 @@
         <v>626</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -6919,13 +6943,13 @@
         <v>626</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,7 +6985,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6976,7 +7000,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,13 +7030,13 @@
         <v>778</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -7021,13 +7045,13 @@
         <v>778</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,7 +7087,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7078,7 +7102,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,7 +7138,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -7129,7 +7153,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,7 +7227,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -7212,13 +7236,13 @@
         <v>759</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -7227,13 +7251,13 @@
         <v>759</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7272,13 @@
         <v>937</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -7263,13 +7287,13 @@
         <v>536</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -7278,13 +7302,13 @@
         <v>1473</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,13 +7323,13 @@
         <v>892</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H51" s="7">
         <v>2</v>
@@ -7314,13 +7338,13 @@
         <v>1907</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M51" s="7">
         <v>3</v>
@@ -7329,13 +7353,13 @@
         <v>2799</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7350,13 +7374,13 @@
         <v>943</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H52" s="7">
         <v>3</v>
@@ -7365,13 +7389,13 @@
         <v>2528</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M52" s="7">
         <v>4</v>
@@ -7380,13 +7404,13 @@
         <v>3471</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,13 +7425,13 @@
         <v>672</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -7416,13 +7440,13 @@
         <v>1167</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -7431,13 +7455,13 @@
         <v>1840</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,13 +7476,13 @@
         <v>644</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H54" s="7">
         <v>2</v>
@@ -7467,13 +7491,13 @@
         <v>1165</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>180</v>
+        <v>341</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -7482,13 +7506,13 @@
         <v>1809</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,13 +7527,13 @@
         <v>2024</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -7518,13 +7542,13 @@
         <v>1863</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M55" s="7">
         <v>4</v>
@@ -7533,13 +7557,13 @@
         <v>3887</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,7 +7584,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7575,7 +7599,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -7590,7 +7614,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7629,13 @@
         <v>2253</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -7620,13 +7644,13 @@
         <v>931</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M57" s="7">
         <v>3</v>
@@ -7635,13 +7659,13 @@
         <v>3185</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7680,13 @@
         <v>713</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
@@ -7671,13 +7695,13 @@
         <v>2577</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M58" s="7">
         <v>4</v>
@@ -7686,13 +7710,13 @@
         <v>3290</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>156</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,7 +7737,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -7722,13 +7746,13 @@
         <v>1492</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
@@ -7737,13 +7761,13 @@
         <v>1492</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -7758,13 +7782,13 @@
         <v>1862</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -7773,13 +7797,13 @@
         <v>778</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -7788,13 +7812,13 @@
         <v>2640</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,13 +7833,13 @@
         <v>983</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -7830,7 +7854,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -7839,13 +7863,13 @@
         <v>983</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -7866,7 +7890,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -7881,7 +7905,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -7896,7 +7920,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,7 +7976,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ip32_a_es-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_es-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CFE24C-9697-4345-8164-D0A7C65EAEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1243797-4ACC-421D-8688-17B11B949624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{104C96EF-1041-4048-A947-1E1614F53836}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BB62D953-A3E2-40A7-A2F5-73C4C673FED2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,15 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="376">
   <si>
     <t>Menores según el año que llegó a España en 2012 (Tasa respuesta: 2,62%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -75,25 +75,31 @@
     <t>0%</t>
   </si>
   <si>
+    <t>23,25%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
     <t>17,08%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>55,37%</t>
+    <t>54,73%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>37,46%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>60,59%</t>
@@ -102,58 +108,52 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
   </si>
   <si>
     <t>39,41%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
     <t>21,15%</t>
   </si>
   <si>
-    <t>57,63%</t>
+    <t>60,29%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>71,89%</t>
+    <t>71,91%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>51,41%</t>
+    <t>51,98%</t>
   </si>
   <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>74,03%</t>
+    <t>73,51%</t>
   </si>
   <si>
     <t>21,09%</t>
   </si>
   <si>
-    <t>59,15%</t>
+    <t>56,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -162,733 +162,721 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
     <t>5,61%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>34,85%</t>
+    <t>37,95%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>20,43%</t>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
+    <t>28,98%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a España en 2016 (Tasa respuesta: 1,51%)</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a España en 2016 (Tasa respuesta: 1,51%)</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
+    <t>60,0%</t>
   </si>
   <si>
     <t>12,26%</t>
   </si>
   <si>
-    <t>38,8%</t>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
+    <t>45,55%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>40,66%</t>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>43,2%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
+    <t>50,63%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>49,7%</t>
+    <t>56,58%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>30,83%</t>
+    <t>30,79%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>66,2%</t>
+    <t>59,05%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>32,8%</t>
+    <t>32,4%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>72,97%</t>
+    <t>65,55%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>45,02%</t>
+    <t>45,91%</t>
   </si>
   <si>
     <t>37,9%</t>
@@ -897,34 +885,34 @@
     <t>13,0%</t>
   </si>
   <si>
-    <t>50,3%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
     <t>25,07%</t>
   </si>
   <si>
-    <t>61,26%</t>
+    <t>61,44%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
-    <t>83,78%</t>
+    <t>82,27%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>60,26%</t>
+    <t>63,32%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -936,163 +924,160 @@
     <t>8,94%</t>
   </si>
   <si>
-    <t>39,34%</t>
+    <t>45,28%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>61,9%</t>
+    <t>62,57%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>39,89%</t>
+    <t>48,62%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>66,6%</t>
+    <t>69,59%</t>
   </si>
   <si>
     <t>10,8%</t>
   </si>
   <si>
-    <t>45,73%</t>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>13,95%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>18,05%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>18,15%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>31,73%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
+    <t>33,02%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>31,2%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>24,66%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
+    <t>46,11%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -1101,91 +1086,85 @@
     <t>5,78%</t>
   </si>
   <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
+    <t>53,58%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>30,88%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
+    <t>28,64%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>46,89%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>25,16%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>42,04%</t>
+    <t>40,78%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>21,86%</t>
+    <t>17,95%</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C47FBB-00A1-4F7D-BE7C-11FE38DA8F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115F281D-F092-4CD8-A036-528FDB42B5EA}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2021,34 +2000,34 @@
         <v>2008</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>739</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2123,10 +2102,10 @@
         <v>2006</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1924</v>
+        <v>1058</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2138,10 +2117,10 @@
         <v>20</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1058</v>
+        <v>1924</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -2177,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1251</v>
+        <v>718</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>26</v>
@@ -2186,22 +2165,22 @@
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>718</v>
+        <v>1251</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2327,34 +2306,34 @@
         <v>2002</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1657</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1657</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2378,34 +2357,34 @@
         <v>2000</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1963</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2429,10 +2408,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>3175</v>
+        <v>6136</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>39</v>
@@ -2444,10 +2423,10 @@
         <v>39</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>6136</v>
+        <v>3175</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2686,34 +2665,34 @@
         <v>2010</v>
       </c>
       <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="7">
         <v>2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>2051</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -2737,31 +2716,31 @@
         <v>2009</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>1255</v>
+        <v>3946</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>3946</v>
+        <v>1255</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>52</v>
@@ -2788,34 +2767,34 @@
         <v>2008</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2839,31 +2818,31 @@
         <v>2007</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>3000</v>
+        <v>2003</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2003</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>64</v>
@@ -2890,10 +2869,10 @@
         <v>2006</v>
       </c>
       <c r="C27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>1165</v>
+        <v>1866</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>68</v>
@@ -2905,10 +2884,10 @@
         <v>69</v>
       </c>
       <c r="H27" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>1866</v>
+        <v>1165</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>70</v>
@@ -2941,31 +2920,31 @@
         <v>2005</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>2863</v>
+        <v>962</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2863</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
-        <v>962</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>79</v>
@@ -2992,10 +2971,10 @@
         <v>2004</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>2062</v>
+        <v>736</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>83</v>
@@ -3007,10 +2986,10 @@
         <v>84</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>736</v>
+        <v>2062</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>85</v>
@@ -3043,34 +3022,34 @@
         <v>2003</v>
       </c>
       <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="7">
         <v>4</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>3701</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -3079,7 +3058,7 @@
         <v>3701</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>93</v>
@@ -3094,31 +3073,31 @@
         <v>2002</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>982</v>
+        <v>2587</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>2587</v>
+        <v>982</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>99</v>
@@ -3145,34 +3124,34 @@
         <v>2000</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>878</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3196,10 +3175,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="7">
-        <v>17080</v>
+        <v>14519</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>39</v>
@@ -3211,10 +3190,10 @@
         <v>39</v>
       </c>
       <c r="H33" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I33" s="7">
-        <v>14519</v>
+        <v>17080</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>39</v>
@@ -3261,7 +3240,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3276,7 +3255,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3312,7 +3291,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3327,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3363,7 +3342,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3378,7 +3357,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3414,7 +3393,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3429,7 +3408,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3465,7 +3444,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3480,7 +3459,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3504,10 +3483,10 @@
         <v>2009</v>
       </c>
       <c r="C39" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="7">
-        <v>951</v>
+        <v>1938</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>110</v>
@@ -3519,10 +3498,10 @@
         <v>111</v>
       </c>
       <c r="H39" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
-        <v>1938</v>
+        <v>951</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>112</v>
@@ -3540,13 +3519,13 @@
         <v>2890</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,34 +3534,34 @@
         <v>2008</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="H40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3591,13 +3570,13 @@
         <v>930</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,34 +3585,34 @@
         <v>2007</v>
       </c>
       <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="7">
         <v>2</v>
       </c>
-      <c r="D41" s="7">
+      <c r="I41" s="7">
         <v>1721</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="J41" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3642,13 +3621,13 @@
         <v>1721</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,34 +3636,34 @@
         <v>2006</v>
       </c>
       <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="7">
         <v>1</v>
       </c>
-      <c r="D42" s="7">
+      <c r="I42" s="7">
         <v>1098</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="J42" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3693,13 +3672,13 @@
         <v>1097</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,31 +3690,31 @@
         <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>948</v>
+        <v>842</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
       </c>
       <c r="I43" s="7">
-        <v>842</v>
+        <v>948</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3744,13 +3723,13 @@
         <v>1790</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3750,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3786,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -3813,10 +3792,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="7">
-        <v>951</v>
+        <v>910</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
@@ -3828,16 +3807,16 @@
         <v>1</v>
       </c>
       <c r="I45" s="7">
-        <v>910</v>
+        <v>951</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
@@ -3846,13 +3825,13 @@
         <v>1862</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,34 +3840,34 @@
         <v>2002</v>
       </c>
       <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="7">
         <v>1</v>
       </c>
-      <c r="D46" s="7">
+      <c r="I46" s="7">
         <v>942</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="J46" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3897,13 +3876,13 @@
         <v>942</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3903,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3939,7 +3918,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3963,10 +3942,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48" s="7">
-        <v>6611</v>
+        <v>4621</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>39</v>
@@ -3978,10 +3957,10 @@
         <v>39</v>
       </c>
       <c r="H48" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I48" s="7">
-        <v>4621</v>
+        <v>6611</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>39</v>
@@ -4028,37 +4007,37 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="7" t="s">
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,37 +4058,37 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="7" t="s">
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,37 +4109,37 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="7" t="s">
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,37 +4160,37 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="7" t="s">
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,34 +4199,34 @@
         <v>2010</v>
       </c>
       <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="7">
         <v>2</v>
       </c>
-      <c r="D53" s="7">
+      <c r="I53" s="7">
         <v>2051</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="J53" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -4256,13 +4235,13 @@
         <v>2051</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,34 +4250,34 @@
         <v>2009</v>
       </c>
       <c r="C54" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D54" s="7">
-        <v>2207</v>
+        <v>5885</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>152</v>
       </c>
       <c r="H54" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I54" s="7">
-        <v>5885</v>
+        <v>2207</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>153</v>
       </c>
       <c r="K54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M54" s="7">
         <v>8</v>
@@ -4307,13 +4286,13 @@
         <v>8091</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,34 +4301,34 @@
         <v>2008</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>3209</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="H55" s="7">
-        <v>4</v>
-      </c>
-      <c r="I55" s="7">
-        <v>3209</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M55" s="7">
         <v>4</v>
@@ -4358,13 +4337,13 @@
         <v>3209</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,34 +4352,34 @@
         <v>2007</v>
       </c>
       <c r="C56" s="7">
+        <v>2</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2003</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="7">
         <v>5</v>
       </c>
-      <c r="D56" s="7">
+      <c r="I56" s="7">
         <v>4720</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H56" s="7">
-        <v>2</v>
-      </c>
-      <c r="I56" s="7">
-        <v>2003</v>
-      </c>
-      <c r="J56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M56" s="7">
         <v>7</v>
@@ -4409,13 +4388,13 @@
         <v>6723</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,34 +4403,34 @@
         <v>2006</v>
       </c>
       <c r="C57" s="7">
+        <v>3</v>
+      </c>
+      <c r="D57" s="7">
+        <v>2924</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H57" s="7">
         <v>4</v>
       </c>
-      <c r="D57" s="7">
+      <c r="I57" s="7">
         <v>4187</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="J57" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H57" s="7">
-        <v>3</v>
-      </c>
-      <c r="I57" s="7">
-        <v>2924</v>
-      </c>
-      <c r="J57" s="7" t="s">
+      <c r="K57" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="L57" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M57" s="7">
         <v>7</v>
@@ -4460,13 +4439,13 @@
         <v>7111</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="Q57" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,34 +4454,34 @@
         <v>2005</v>
       </c>
       <c r="C58" s="7">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7">
+        <v>2522</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H58" s="7">
         <v>5</v>
       </c>
-      <c r="D58" s="7">
+      <c r="I58" s="7">
         <v>5063</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F58" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="K58" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H58" s="7">
-        <v>3</v>
-      </c>
-      <c r="I58" s="7">
-        <v>2522</v>
-      </c>
-      <c r="J58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M58" s="7">
         <v>8</v>
@@ -4511,13 +4490,13 @@
         <v>7585</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,34 +4505,34 @@
         <v>2004</v>
       </c>
       <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7">
+        <v>736</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" s="7">
         <v>2</v>
       </c>
-      <c r="D59" s="7">
+      <c r="I59" s="7">
         <v>2062</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="J59" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="K59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="H59" s="7">
-        <v>1</v>
-      </c>
-      <c r="I59" s="7">
-        <v>736</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M59" s="7">
         <v>3</v>
@@ -4562,13 +4541,13 @@
         <v>2798</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P59" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P59" s="7" t="s">
+      <c r="Q59" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,31 +4556,31 @@
         <v>2003</v>
       </c>
       <c r="C60" s="7">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7">
+        <v>910</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H60" s="7">
         <v>5</v>
       </c>
-      <c r="D60" s="7">
+      <c r="I60" s="7">
         <v>4653</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G60" s="7" t="s">
+      <c r="J60" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H60" s="7">
-        <v>1</v>
-      </c>
-      <c r="I60" s="7">
-        <v>910</v>
-      </c>
-      <c r="J60" s="7" t="s">
+      <c r="K60" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>200</v>
@@ -4628,34 +4607,34 @@
         <v>2002</v>
       </c>
       <c r="C61" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" s="7">
-        <v>1924</v>
+        <v>4245</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>204</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>205</v>
       </c>
       <c r="H61" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I61" s="7">
-        <v>4245</v>
+        <v>1924</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>206</v>
       </c>
       <c r="K61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M61" s="7">
         <v>7</v>
@@ -4664,13 +4643,13 @@
         <v>6169</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P61" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P61" s="7" t="s">
+      <c r="Q61" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,34 +4658,34 @@
         <v>2000</v>
       </c>
       <c r="C62" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D62" s="7">
-        <v>0</v>
+        <v>2841</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="G62" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="H62" s="7">
-        <v>3</v>
-      </c>
-      <c r="I62" s="7">
-        <v>2841</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M62" s="7">
         <v>3</v>
@@ -4715,13 +4694,13 @@
         <v>2841</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,10 +4709,10 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="7">
-        <v>26866</v>
+        <v>25276</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>39</v>
@@ -4745,10 +4724,10 @@
         <v>39</v>
       </c>
       <c r="H63" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I63" s="7">
-        <v>25276</v>
+        <v>26866</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>39</v>
@@ -4777,7 +4756,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4796,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAA282C-FDFB-4091-956D-D7B46A39711A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA554D7-CC87-482B-A682-9E454E065AC9}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4813,7 +4792,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4926,7 +4905,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4941,7 +4920,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4956,7 +4935,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,7 +4956,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4992,7 +4971,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5007,7 +4986,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,7 +5007,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5043,7 +5022,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5058,7 +5037,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,7 +5058,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5094,7 +5073,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5109,7 +5088,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,7 +5109,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5145,7 +5124,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5160,7 +5139,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,7 +5160,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5196,7 +5175,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5211,7 +5190,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,34 +5199,34 @@
         <v>2008</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1863</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>943</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1863</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5256,13 +5235,13 @@
         <v>2806</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,7 +5262,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5298,7 +5277,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5313,7 +5292,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,34 +5301,34 @@
         <v>2006</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>931</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -5358,13 +5337,13 @@
         <v>931</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,7 +5364,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5400,7 +5379,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5415,7 +5394,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,7 +5415,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5451,7 +5430,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5466,7 +5445,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,34 +5454,34 @@
         <v>2003</v>
       </c>
       <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>878</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5511,13 +5490,13 @@
         <v>878</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,34 +5505,34 @@
         <v>2002</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>983</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5562,13 +5541,13 @@
         <v>983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,7 +5568,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5604,7 +5583,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5619,7 +5598,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>2805</v>
+        <v>2794</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>39</v>
@@ -5646,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2794</v>
+        <v>2805</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -5693,7 +5672,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5708,7 +5687,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5723,7 +5702,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,34 +5711,34 @@
         <v>2014</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5768,13 +5747,13 @@
         <v>536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,34 +5762,34 @@
         <v>2012</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -5819,13 +5798,13 @@
         <v>993</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,31 +5816,31 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>943</v>
+        <v>874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -5870,13 +5849,13 @@
         <v>1818</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,31 +5867,31 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>672</v>
+        <v>1167</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>1167</v>
+        <v>672</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5921,13 +5900,13 @@
         <v>1840</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,34 +5915,34 @@
         <v>2009</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>1165</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5972,13 +5951,13 @@
         <v>1165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,34 +5966,34 @@
         <v>2008</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1081</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6023,13 +6002,13 @@
         <v>1081</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,7 +6029,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6065,7 +6044,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6080,7 +6059,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,34 +6068,34 @@
         <v>2006</v>
       </c>
       <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>2253</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -6125,13 +6104,13 @@
         <v>2253</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,34 +6119,34 @@
         <v>2005</v>
       </c>
       <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1950</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>713</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H28" s="7">
-        <v>2</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1950</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -6176,13 +6155,13 @@
         <v>2664</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,34 +6170,34 @@
         <v>2004</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>13</v>
+        <v>269</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>1492</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6227,13 +6206,13 @@
         <v>1492</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,34 +6221,34 @@
         <v>2003</v>
       </c>
       <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>983</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6278,13 +6257,13 @@
         <v>983</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,7 +6284,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6320,7 +6299,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6335,7 +6314,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,7 +6335,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6371,7 +6350,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6386,7 +6365,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,10 +6374,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D33" s="7">
-        <v>6646</v>
+        <v>8177</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>39</v>
@@ -6410,10 +6389,10 @@
         <v>39</v>
       </c>
       <c r="H33" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I33" s="7">
-        <v>8177</v>
+        <v>6646</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>39</v>
@@ -6448,34 +6427,34 @@
         <v>2015</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>281</v>
+        <v>13</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6484,13 +6463,13 @@
         <v>759</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,34 +6478,34 @@
         <v>2014</v>
       </c>
       <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="7">
         <v>1</v>
       </c>
-      <c r="D35" s="7">
+      <c r="I35" s="7">
         <v>937</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
       <c r="J35" s="7" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6535,13 +6514,13 @@
         <v>937</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,31 +6532,31 @@
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>915</v>
+        <v>892</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6586,13 +6565,13 @@
         <v>1806</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,34 +6580,34 @@
         <v>2011</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="H37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>1654</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>292</v>
+        <v>10</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>293</v>
+        <v>13</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6637,13 +6616,13 @@
         <v>1653</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,7 +6643,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6679,7 +6658,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6694,7 +6673,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,34 +6682,34 @@
         <v>2009</v>
       </c>
       <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="7">
         <v>1</v>
       </c>
-      <c r="D39" s="7">
+      <c r="I39" s="7">
         <v>644</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
       <c r="J39" s="7" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -6739,13 +6718,13 @@
         <v>644</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,7 +6745,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -6781,7 +6760,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6796,7 +6775,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,7 +6796,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -6832,7 +6811,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6847,7 +6826,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,7 +6847,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -6883,7 +6862,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6898,7 +6877,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,34 +6886,34 @@
         <v>2005</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="H43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>301</v>
+        <v>13</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -6943,13 +6922,13 @@
         <v>626</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,7 +6949,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -6985,7 +6964,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7000,7 +6979,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,34 +6988,34 @@
         <v>2003</v>
       </c>
       <c r="C45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="H45" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>304</v>
+        <v>10</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>305</v>
+        <v>13</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -7045,13 +7024,13 @@
         <v>778</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,7 +7051,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7087,7 +7066,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7102,7 +7081,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,7 +7102,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7138,7 +7117,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -7153,7 +7132,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,10 +7141,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D48" s="7">
-        <v>2473</v>
+        <v>4733</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>39</v>
@@ -7177,10 +7156,10 @@
         <v>39</v>
       </c>
       <c r="H48" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I48" s="7">
-        <v>4733</v>
+        <v>2473</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>39</v>
@@ -7215,34 +7194,34 @@
         <v>2015</v>
       </c>
       <c r="C49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>10</v>
+        <v>304</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H49" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>309</v>
+        <v>10</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -7251,13 +7230,13 @@
         <v>759</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,31 +7248,31 @@
         <v>1</v>
       </c>
       <c r="D50" s="7">
-        <v>937</v>
+        <v>536</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
       </c>
       <c r="I50" s="7">
-        <v>536</v>
+        <v>937</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -7302,13 +7281,13 @@
         <v>1473</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,34 +7296,34 @@
         <v>2012</v>
       </c>
       <c r="C51" s="7">
+        <v>2</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1907</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H51" s="7">
         <v>1</v>
       </c>
-      <c r="D51" s="7">
+      <c r="I51" s="7">
         <v>892</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H51" s="7">
-        <v>2</v>
-      </c>
-      <c r="I51" s="7">
-        <v>1907</v>
-      </c>
       <c r="J51" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M51" s="7">
         <v>3</v>
@@ -7353,13 +7332,13 @@
         <v>2799</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,34 +7347,34 @@
         <v>2011</v>
       </c>
       <c r="C52" s="7">
+        <v>3</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2528</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H52" s="7">
         <v>1</v>
       </c>
-      <c r="D52" s="7">
+      <c r="I52" s="7">
         <v>943</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="J52" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H52" s="7">
-        <v>3</v>
-      </c>
-      <c r="I52" s="7">
-        <v>2528</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M52" s="7">
         <v>4</v>
@@ -7404,13 +7383,13 @@
         <v>3471</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,31 +7401,31 @@
         <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>672</v>
+        <v>1167</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
       </c>
       <c r="I53" s="7">
-        <v>1167</v>
+        <v>672</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -7455,13 +7434,13 @@
         <v>1840</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,34 +7449,34 @@
         <v>2009</v>
       </c>
       <c r="C54" s="7">
+        <v>2</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1165</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H54" s="7">
         <v>1</v>
       </c>
-      <c r="D54" s="7">
+      <c r="I54" s="7">
         <v>644</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H54" s="7">
-        <v>2</v>
-      </c>
-      <c r="I54" s="7">
-        <v>1165</v>
-      </c>
       <c r="J54" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -7506,13 +7485,13 @@
         <v>1809</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,31 +7503,31 @@
         <v>2</v>
       </c>
       <c r="D55" s="7">
-        <v>2024</v>
+        <v>1863</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
       </c>
       <c r="I55" s="7">
-        <v>1863</v>
+        <v>2024</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M55" s="7">
         <v>4</v>
@@ -7557,13 +7536,13 @@
         <v>3887</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,7 +7563,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7599,7 +7578,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -7614,7 +7593,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,34 +7602,34 @@
         <v>2006</v>
       </c>
       <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7">
+        <v>931</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H57" s="7">
         <v>2</v>
       </c>
-      <c r="D57" s="7">
+      <c r="I57" s="7">
         <v>2253</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H57" s="7">
-        <v>1</v>
-      </c>
-      <c r="I57" s="7">
-        <v>931</v>
-      </c>
       <c r="J57" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M57" s="7">
         <v>3</v>
@@ -7659,13 +7638,13 @@
         <v>3185</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,34 +7653,34 @@
         <v>2005</v>
       </c>
       <c r="C58" s="7">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7">
+        <v>2577</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H58" s="7">
         <v>1</v>
       </c>
-      <c r="D58" s="7">
+      <c r="I58" s="7">
         <v>713</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H58" s="7">
-        <v>3</v>
-      </c>
-      <c r="I58" s="7">
-        <v>2577</v>
-      </c>
       <c r="J58" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>364</v>
+        <v>10</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M58" s="7">
         <v>4</v>
@@ -7710,13 +7689,13 @@
         <v>3290</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,34 +7704,34 @@
         <v>2004</v>
       </c>
       <c r="C59" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" s="7">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="H59" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>1492</v>
+        <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
@@ -7761,13 +7740,13 @@
         <v>1492</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,34 +7755,34 @@
         <v>2003</v>
       </c>
       <c r="C60" s="7">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7">
+        <v>778</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H60" s="7">
         <v>2</v>
       </c>
-      <c r="D60" s="7">
+      <c r="I60" s="7">
         <v>1862</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H60" s="7">
-        <v>1</v>
-      </c>
-      <c r="I60" s="7">
-        <v>778</v>
-      </c>
       <c r="J60" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -7812,13 +7791,13 @@
         <v>2640</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>377</v>
+        <v>105</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,34 +7806,34 @@
         <v>2002</v>
       </c>
       <c r="C61" s="7">
+        <v>0</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H61" s="7">
         <v>1</v>
       </c>
-      <c r="D61" s="7">
+      <c r="I61" s="7">
         <v>983</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
       <c r="J61" s="7" t="s">
-        <v>10</v>
+        <v>372</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -7863,13 +7842,13 @@
         <v>983</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -7890,7 +7869,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -7905,7 +7884,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -7920,7 +7899,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -7929,10 +7908,10 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D63" s="7">
-        <v>11924</v>
+        <v>15703</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>39</v>
@@ -7944,10 +7923,10 @@
         <v>39</v>
       </c>
       <c r="H63" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I63" s="7">
-        <v>15703</v>
+        <v>11924</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>39</v>
@@ -7976,7 +7955,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
